--- a/biology/Botanique/Helia_grandiflora/Helia_grandiflora.xlsx
+++ b/biology/Botanique/Helia_grandiflora/Helia_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helia grandiflora est une espèce de plante herbacées du plateau des Guyanes et du Bassin amazonien, appartenant à la famille des Gentianaceae.
-Elle est connue en Guyane sous les noms de dankuna tabaka (Nenge tongo), au Suriname comme joelieballi (Arawak), dia tabaka, kwasi-bita, sabana-tabacca, sabana-tabaka, sabana tabak (Sranan tongo), koeraja, au Guyana comme  yuriballi, yuroballi (Arawak), aha, amerindian tobacco, salidore, wild tobacco[3], ou au Brésil Tabaco-de-lagarto[4].
+Elle est connue en Guyane sous les noms de dankuna tabaka (Nenge tongo), au Suriname comme joelieballi (Arawak), dia tabaka, kwasi-bita, sabana-tabacca, sabana-tabaka, sabana tabak (Sranan tongo), koeraja, au Guyana comme  yuriballi, yuroballi (Arawak), aha, amerindian tobacco, salidore, wild tobacco, ou au Brésil Tabaco-de-lagarto.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helia grandiflora est une Herbacée ou un sous-arbrisseau non ramifié, parfois peu ramifié, atteignant jusqu'à 2,5 m de haut. 
 Les tiges et les branches, atteignent jusqu'à 1,1 cm de diamètre, sont sur les 3-4 entrenœuds inférieurs quadrangulaires avec des ailes larges de 0,1-1,8 mm, puis devenant brusquement cylindriques sans ailes, avec des entrenœuds longs de 2,3-27,2 cm.
@@ -526,12 +540,12 @@
 Elle a la forme d'un entonnoir, long de 21-44 mm pour 13-27 mm de large à l'embouchure, avec des lobes ovales, à apex obtus, mesurant 5-10 x 6-8 mm.
 Les étamines non extériorisées, ont des filets longs de 12-18 mm, avec des poches staminales ± présentes au point d'insertion, incurvées vers le bas près de l'anthère.
 Les anthères sont blanches, de forme elliptiques à ovales, longues de 2,4-3,6 mm, devenant droites après l'anthèse.
-L'exine du pollen est diversement réticulée avec structures épaisses aux pôles[5],[6].
+L'exine du pollen est diversement réticulée avec structures épaisses aux pôles,.
 Le pistil est long de 21-27 mm, avec l'ovaire mesurant 5,9-7,9 x 2,7-3,1 mm.
 Le style est long de (9-)14-20 mm, avec le lobe du stigmate de forme elliptique, mesurant 2,5-5,4 x 1,5-2,4 mm. 
 Les fruit dont des capsules brunes, ellipsoïdes, mesurant 9-20 x 4-9 mm.
-Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre[3].
-Helia grandiflora est souvent confondu avec Helia alata[7].
+Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre.
+Helia grandiflora est souvent confondu avec Helia alata.
 </t>
         </is>
       </c>
@@ -560,9 +574,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Helia grandiflora est présent dans certaines îles des Petites Antilles (Trinidad et Grenade), en Colombie, au Venezuela, dans les Guyanes, et au Brésil[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helia grandiflora est présent dans certaines îles des Petites Antilles (Trinidad et Grenade), en Colombie, au Venezuela, dans les Guyanes, et au Brésil.
 </t>
         </is>
       </c>
@@ -591,13 +607,15 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Helia grandiflora pousse souvent dans des ouvertures forestières le long de cours d'eau, sur les bords de routes, ou dans les formations secondaires, et parfois dans des savanes herbeuses et les végétations de type cerrado ou caatinga, le plus souvent sur des sols humides de sable blanc[8], pauvres en nutriments, mais parfois sur des sols rocheux ou sur des sols argileux ou latéritiques, à 80-1 900 m d'altitude[3],[9].
-Helia grandiflora est pollinisée par des chauves-souris et aurait des tendances myrmécophiles : les nectaires situés à la base des calices et à la base des pédicelles semblent être particulièrement attractifs pour les fourmis[3] (ce qui peut rappeler les observations faites sur Helia alata[10], espèce avec laquelle elle est parfois confondue).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Helia grandiflora pousse souvent dans des ouvertures forestières le long de cours d'eau, sur les bords de routes, ou dans les formations secondaires, et parfois dans des savanes herbeuses et les végétations de type cerrado ou caatinga, le plus souvent sur des sols humides de sable blanc, pauvres en nutriments, mais parfois sur des sols rocheux ou sur des sols argileux ou latéritiques, à 80-1 900 m d'altitude,.
+Helia grandiflora est pollinisée par des chauves-souris et aurait des tendances myrmécophiles : les nectaires situés à la base des calices et à la base des pédicelles semblent être particulièrement attractifs pour les fourmis (ce qui peut rappeler les observations faites sur Helia alata, espèce avec laquelle elle est parfois confondue).
 Helia grandiflora a été étudiée sous divers aspects : 
-sa phylogénie[11],[7],[12]
-ses nectaires extrafloraux[13],[14]</t>
+sa phylogénie
+ses nectaires extrafloraux,</t>
         </is>
       </c>
     </row>
@@ -625,11 +643,13 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, Helia grandiflora est considérée comme une "plante amère" aux propriétés toniques et fébrifuges[15]. 
-Au Guyana, la décoction des feuilles est employé pour "nettoyer le ventre sale" et contre la malaria[3].
-Au Brésil, les communautés riveraines du bassin de l'Unini (en) (Amazonas) emploient les feuilles de Helia grandiflora pour soigner les problèmes dermatologiques (gale, dermatophytes, pityriasis versicolor, démangeaisons et lésions cutanées)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, Helia grandiflora est considérée comme une "plante amère" aux propriétés toniques et fébrifuges. 
+Au Guyana, la décoction des feuilles est employé pour "nettoyer le ventre sale" et contre la malaria.
+Au Brésil, les communautés riveraines du bassin de l'Unini (en) (Amazonas) emploient les feuilles de Helia grandiflora pour soigner les problèmes dermatologiques (gale, dermatophytes, pityriasis versicolor, démangeaisons et lésions cutanées).
 </t>
         </is>
       </c>
@@ -658,9 +678,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius alatus, et en a proposé le protologue suivant[16] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius alatus, et en a proposé le protologue suivant : 
 « 3. LISYANTHUS (grandiflorus) foliis connatis, ovato-oblongis, acutis, floribus vireſcentibus. (Tabula 81.) 
 Planta annua. Radix fibroſa, ramofa, ſublignoſa. Caulis ſimplex, nodoſus, erectus, parte infima tetragonus, ſupremâ teres. Folia oppoſita, ſeſſilia, lanceolata, acuta, glabra, glauca, integerrima. Flores terminales: ramuſculo ad apicem dichotomo, &amp; iterùm indichotomia deſinente. Flores axillares, intrà dichotomiam ſolitarii, pedunculati ; pedunculo incurvo. Calix ; perianthium carnoſum, concavum, quinquedenutum, denticulis membranaceis. Corolla ampla, ſubviridis, limbus quinquefidus ; lobis ſubrotundis, ad oras criſpis, introrsum flexis. Antheræ ſimplices, biloculares.
 Habitat in locis humidis Caïennæ &amp; Guianæ.
